--- a/Rankings.xlsx
+++ b/Rankings.xlsx
@@ -2941,7 +2941,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2965,13 +2965,13 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -2979,13 +2979,13 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
@@ -3007,13 +3007,13 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>30</v>
@@ -3021,13 +3021,13 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -3035,27 +3035,27 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>47</v>
@@ -3063,13 +3063,13 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>51</v>
@@ -3077,13 +3077,13 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>54</v>
@@ -3091,13 +3091,13 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>57</v>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>60</v>
@@ -3119,13 +3119,13 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>64</v>
@@ -3133,13 +3133,13 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>67</v>
@@ -3147,20 +3147,20 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="2" t="s">
+      <c r="A16" s="2" t="s">
         <v>70</v>
       </c>
     </row>
